--- a/biology/Biologie cellulaire et moléculaire/Enzyme_de_restriction/Enzyme_de_restriction.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Enzyme_de_restriction/Enzyme_de_restriction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une enzyme de restriction est une protéine capable de couper un fragment d'ADN au niveau d'une séquence de nucléotides caractéristique appelée site de restriction. Chaque enzyme de restriction reconnaît ainsi un site spécifique. Plusieurs centaines d'enzymes de restriction sont actuellement connues.
 Naturellement présentes chez un grand nombre d'espèces de bactéries, ces enzymes sont devenues des outils importants en génie génétique.
@@ -512,7 +524,9 @@
           <t>Rôle biologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enzymes de restriction produites par des bactéries constituent un mécanisme de défense contre les infections par les bactériophages, des virus spécifiques des bactéries. Lorsque le virus injecte son ADN dans la bactérie, celui-ci est coupé par l'enzyme de restriction au niveau de ses sites spécifiques. La destruction du génome du virus bloque ainsi l'infection. Le nom d'enzyme de restriction provient de ce mécanisme : la présence de ces enzymes dans les bactéries restreint l'infectiosité des bactériophages.
 Pour éviter que l'enzyme de restriction ne coupe l'ADN de son propre génome, la bactérie fabrique aussi une deuxième enzyme appelée méthylase, qui reconnaît également le site de restriction. La méthylase ne coupe pas l'ADN, mais le modifie en lui rajoutant un groupement méthyle sur un ou plusieurs nucléotides du site. Cette méthylation empêche la coupure par l'enzyme de restriction.
@@ -545,7 +559,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enzymes de restrictions appartiennent à la classe des endonucléases, c'est-à-dire des enzymes capables de cliver les liaisons phosphodiester entre deux nucléotides à l'intérieur de la chaîne d'un acide nucléique, et plus spécifiquement appartiennent à la classe des endodésoxyribonucléases puisque spécifique à l'ADN. Les endonucléases diffèrent des exonucléases, puisqu'elles peuvent cliver les brins d'acide nucléique de manière interne, alors que les exonucléases n'attaquent la molécule d'acide nucléique qu'au niveau de ses extrémités.
 Les enzymes de restriction sont capables de reconnaître spécifiquement et uniquement une courte séquence de l'ADN de 4 à 10 paires de bases, et de cliver les deux brins du duplex d'ADN au site reconnu. Cette propriété a depuis longtemps été utilisée en biologie moléculaire, puisqu'elles permettent de fragmenter l'ADN en segments de taille réduite en coupant à des sites définis.
@@ -583,9 +599,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nomenclature des enzymes de restriction est précise. Leur nom comporte 3 ou 4 lettres correspondant entre autres à la bactérie à partir de laquelle on a extrait cette enzyme[2],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nomenclature des enzymes de restriction est précise. Leur nom comporte 3 ou 4 lettres correspondant entre autres à la bactérie à partir de laquelle on a extrait cette enzyme, :
 La première lettre est en majuscule cela correspond à la première lettre du genre de la bactérie
 La seconde et troisième lettre sont en minuscule et correspondent aux deux premières lettres de l'espèce bactérienne
 La quatrième lettre correspond à la souche bactérienne, elle est écrite en majuscule mais n'est pas présente dans toutes les enzymes de restriction
@@ -619,7 +637,9 @@
           <t>Exemples d'enzymes de type II</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -654,7 +674,9 @@
           <t>Utilisation en génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les digestions enzymatiques se font généralement dans un microtube mis au bain-marie à température convenablement réglée (généralement 37 °C) sur un portoir flottant.
 </t>
